--- a/Framework_MWC_Testing/reports/results/ResultsData.xlsx
+++ b/Framework_MWC_Testing/reports/results/ResultsData.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Register" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Search" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Profile" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Order" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1339,4 +1342,1929 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Testcase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TK2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>E196</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13/10/2025 16:06:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TK3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Giày</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Giày</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Giày Thể Thao Nam MWC 5827 - Giày Thể Thao Sneaker Nam Cổ Thấp Đi Phượt, Leo Núi, Chạy Bộ Siêu Bền Đẹp, Đa Phong Cách.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13/10/2025 16:08:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TK4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GIÀY</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Giày</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Giày Thể Thao Nam MWC 5827 - Giày Thể Thao Sneaker Nam Cổ Thấp Đi Phượt, Leo Núi, Chạy Bộ Siêu Bền Đẹp, Đa Phong Cách.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13/10/2025 16:09:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TK5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Giay the thao nam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Giày thể thao nam</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Giày Thể Thao Nam MWC 5839 - Giày Sneaker Nam Đi Học, Đi Chơi, Leo Núi, Chạy Bộ Siêu Bền Đẹp, Thời trang.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13/10/2025 16:10:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TK6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giay th</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Không tìm thấy sản phẩm</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Giày Thể Thao Nam MWC 5809 - Giày Thể Thao Netro Nam Da Phối Vải Lưới Cao Cấp, Dẫn Đầu Xu Hướng.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13/10/2025 16:11:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TK7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Giay!#$%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Không tìm thấy sản phẩm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Không tìm thấy sản phẩm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13/10/2025 16:13:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TK8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Màu đen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Màu đen</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Dép Nam MWC 9200 - Dép Nam Da Vân Hai Quai Chéo Hình Chữ X Màu Đen Tuyền Huyền Bí, Lịch Lãm, Sang Trọng.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13/10/2025 16:14:20</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Testcase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FullName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>District</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Ward</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TT1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:33:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TT2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>TP. Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Quận 1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:33:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TT3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>03321156790</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2001</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>TP. Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Quận 2</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:33:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TT4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Khác</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2001</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:33:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TT5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2001</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:33:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TT6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2001</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Chọn Tỉnh/Thành</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Chọn Quận/huyện</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Chọn Xã/Phường</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:34:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TT7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>anh1@</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Khác</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập phần đứng sau '@'. 'anh1@' không hoàn chỉnh.</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>vui lòng nhập phần đứng sau '@'. 'anh1@' không hoàn chỉnh.</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:34:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TT8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>anh1@@</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>03321156790</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2002</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Phần đứng sau '@' không được chứa biểu tượng '@'.</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>phần đứng sau '@' không được chứa biểu tượng '@'.</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TT9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>anh1@gmail.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2003</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>.' bị sử dụng sai vị trí trong 'gmail.'.</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>'.' bị sử dụng sai vị trí trong 'gmail.'.</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:35:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TT10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2004</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:35:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TT11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>abcd</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2005</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Số điện thoại không hợp lệ.</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:35:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TT12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Số điện thoại không hợp lệ.</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:36:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TT13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0332115678987</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2007</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Số điện thoại không hợp lệ.</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>15/10/2025 13:36:25</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Testcase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FullName</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>District</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ward</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DH1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0905123456</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>123 Lý Thường Kiệt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Quận 1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Đặt hàng thành công!</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>16/10/2025 00:10:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DH2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>đen</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0905123456</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>123 ABC</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Quận 1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>16/10/2025 00:10:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DH3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>123 ABC</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Quận 1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>16/10/2025 00:10:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DH4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0905123456</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Quận 2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Phường An Khánh</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>16/10/2025 00:10:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DH5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0905123456</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>123 ABC</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chọn Tỉnh/Thành</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Chọn Quận/huyện</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Chọn Xã/Phường</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>16/10/2025 00:10:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DH6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nguyễn A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3321156</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>456 DEF</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Quận 10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Phường 15</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SĐT không đúng định dạng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>16/10/2025 00:10:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Framework_MWC_Testing/reports/results/ResultsData.xlsx
+++ b/Framework_MWC_Testing/reports/results/ResultsData.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Register" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Order" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Search" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Profile" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Order" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Register" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Profile" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,6 +429,495 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Testcase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FullName</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>District</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ward</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DH1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>905123456</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>123 Lý Thường Kiệt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Quận 1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Đặt hàng thành công!</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:11:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DH2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>đen</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>905123456</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>123 ABC</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Quận 1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DH3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>36</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>123 ABC</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Quận 1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:13:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DH4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>905123456</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Quận 2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Phường An Khánh</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:14:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DH5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>36</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>905123456</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>123 ABC</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chọn Tỉnh/Thành</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Chọn Quận/huyện</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Chọn Xã/Phường</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DH6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>35</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nguyễn A</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3321156</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>456 DEF</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Quận 10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Phường 15</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SĐT không đúng định dạng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:16:23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -507,7 +996,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/10/2025 00:51:38</t>
+          <t>20/10/2025 14:38:00</t>
         </is>
       </c>
     </row>
@@ -544,7 +1033,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/10/2025 00:51:59</t>
+          <t>20/10/2025 14:38:22</t>
         </is>
       </c>
     </row>
@@ -581,7 +1070,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12/10/2025 00:52:23</t>
+          <t>20/10/2025 14:38:43</t>
         </is>
       </c>
     </row>
@@ -614,7 +1103,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12/10/2025 00:52:28</t>
+          <t>20/10/2025 14:38:48</t>
         </is>
       </c>
     </row>
@@ -637,7 +1126,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Không tìm thấy thông báo.</t>
+          <t xml:space="preserve">Tên người dùng khác mong đợi: </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -647,7 +1136,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12/10/2025 00:52:49</t>
+          <t>20/10/2025 14:39:07</t>
         </is>
       </c>
     </row>
@@ -674,7 +1163,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>tên đăng nhập hoặc mật khẩu không đúng!</t>
+          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -684,7 +1173,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12/10/2025 00:52:54</t>
+          <t>20/10/2025 14:39:13</t>
         </is>
       </c>
     </row>
@@ -711,7 +1200,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>tên đăng nhập hoặc mật khẩu không đúng!</t>
+          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -721,7 +1210,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12/10/2025 00:53:00</t>
+          <t>20/10/2025 14:39:19</t>
         </is>
       </c>
     </row>
@@ -730,7 +1219,320 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Testcase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TK1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.
+195.000 đ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20/10/2025 15:06:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TK2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>E196</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.
+195.000 đ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20/10/2025 15:06:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TK3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Giày</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Giày</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC G231 - Dép Sục Cao Gót Nữ 4cm, Mũi Nhọn Đính Hoa Trà Kim Loại Qúy Phái, Sang Chảnh Kiểu Pháp.
+215.000 đ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20/10/2025 15:06:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TK4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GIÀY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Giày</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC G231 - Dép Sục Cao Gót Nữ 4cm, Mũi Nhọn Đính Hoa Trà Kim Loại Qúy Phái, Sang Chảnh Kiểu Pháp.
+215.000 đ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>20/10/2025 15:06:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TK5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giay the thao nam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Giày thể thao nam</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Giày Thể Thao Nam MWC 5827 - Giày Thể Thao Sneaker Nam Cổ Thấp Đi Phượt, Leo Núi, Chạy Bộ Siêu Bền Đẹp, Đa Phong Cách.
+380.000 đ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20/10/2025 15:06:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TK6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Giay th</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Không tìm thấy sản phẩm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Không tìm thấy sản phẩm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>20/10/2025 15:06:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TK7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Giay!#$%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Không tìm thấy sản phẩm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Không tìm thấy sản phẩm</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20/10/2025 15:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TK8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Màu đen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Màu đen</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Dép Nam MWC 9200 - Dép Nam Da Vân Hai Quai Chéo Hình Chữ X Màu Đen Tuyền Huyền Bí, Lịch Lãm, Sang Trọng.
+225.000 đ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>20/10/2025 15:07:05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -794,12 +1596,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DN1</t>
+          <t>DK1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>QuynhAnh123</t>
+          <t>MaiQuynhAnh12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -819,7 +1621,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>QuynhAnh123</t>
+          <t>MaiQuynhAnh12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -834,14 +1636,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12/10/2025 00:53:44</t>
+          <t>20/10/2025 15:09:02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DN2</t>
+          <t>DK2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -877,14 +1679,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12/10/2025 00:53:48</t>
+          <t>20/10/2025 15:09:07</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DN3</t>
+          <t>DK3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -920,14 +1722,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>12/10/2025 00:53:54</t>
+          <t>20/10/2025 15:09:13</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DN4</t>
+          <t>DK4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -953,7 +1755,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Không có thông báo</t>
+          <t>Không có thông báo hiển thị.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -963,14 +1765,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>12/10/2025 00:54:00</t>
+          <t>20/10/2025 15:09:19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DN5</t>
+          <t>DK5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -996,7 +1798,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Không có thông báo</t>
+          <t>Không có thông báo hiển thị.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1006,14 +1808,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>12/10/2025 00:54:08</t>
+          <t>20/10/2025 15:09:25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DN6</t>
+          <t>DK6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1053,14 +1855,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12/10/2025 00:54:14</t>
+          <t>20/10/2025 15:09:31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DN7</t>
+          <t>DK7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1100,14 +1902,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12/10/2025 00:54:20</t>
+          <t>20/10/2025 15:09:36</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DN8</t>
+          <t>DK8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1147,14 +1949,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12/10/2025 00:54:26</t>
+          <t>20/10/2025 15:09:42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DN9</t>
+          <t>DK9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1194,14 +1996,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12/10/2025 00:54:32</t>
+          <t>20/10/2025 15:09:48</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DN10</t>
+          <t>DK10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1241,14 +2043,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12/10/2025 00:54:40</t>
+          <t>20/10/2025 15:09:55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DN11</t>
+          <t>DK11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1288,14 +2090,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12/10/2025 00:54:45</t>
+          <t>20/10/2025 15:10:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DN12</t>
+          <t>DK12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1335,7 +2137,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12/10/2025 00:54:51</t>
+          <t>20/10/2025 15:10:06</t>
         </is>
       </c>
     </row>
@@ -1344,282 +2146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Testcase</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Keyword</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TK2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>E196</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>13/10/2025 16:06:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TK3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Giày</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Giày</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Giày Thể Thao Nam MWC 5827 - Giày Thể Thao Sneaker Nam Cổ Thấp Đi Phượt, Leo Núi, Chạy Bộ Siêu Bền Đẹp, Đa Phong Cách.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13/10/2025 16:08:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TK4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GIÀY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Giày</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Giày Thể Thao Nam MWC 5827 - Giày Thể Thao Sneaker Nam Cổ Thấp Đi Phượt, Leo Núi, Chạy Bộ Siêu Bền Đẹp, Đa Phong Cách.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>13/10/2025 16:09:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TK5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Giay the thao nam</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Giày thể thao nam</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Giày Thể Thao Nam MWC 5839 - Giày Sneaker Nam Đi Học, Đi Chơi, Leo Núi, Chạy Bộ Siêu Bền Đẹp, Thời trang.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>13/10/2025 16:10:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TK6</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Giay th</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Không tìm thấy sản phẩm</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Giày Thể Thao Nam MWC 5809 - Giày Thể Thao Netro Nam Da Phối Vải Lưới Cao Cấp, Dẫn Đầu Xu Hướng.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>13/10/2025 16:11:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TK7</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Giay!#$%</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Không tìm thấy sản phẩm</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Không tìm thấy sản phẩm</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>13/10/2025 16:13:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TK8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Màu đen</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Màu đen</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Dép Nam MWC 9200 - Dép Nam Da Vân Hai Quai Chéo Hình Chữ X Màu Đen Tuyền Huyền Bí, Lịch Lãm, Sang Trọng.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>13/10/2025 16:14:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1751,14 +2278,20 @@
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2000</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -1797,7 +2330,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>15/10/2025 13:33:04</t>
+          <t>20/10/2025 15:18:55</t>
         </is>
       </c>
     </row>
@@ -1832,14 +2365,20 @@
           <t>Nam</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2000</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -1878,7 +2417,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>15/10/2025 13:33:16</t>
+          <t>20/10/2025 15:19:05</t>
         </is>
       </c>
     </row>
@@ -1909,14 +2448,20 @@
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>11</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2001</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -1955,7 +2500,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>15/10/2025 13:33:27</t>
+          <t>20/10/2025 15:19:13</t>
         </is>
       </c>
     </row>
@@ -1986,14 +2531,20 @@
           <t>Khác</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2001</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -2032,7 +2583,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>15/10/2025 13:33:40</t>
+          <t>20/10/2025 15:19:25</t>
         </is>
       </c>
     </row>
@@ -2067,14 +2618,20 @@
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2001</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -2109,7 +2666,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/10/2025 13:33:53</t>
+          <t>20/10/2025 15:19:37</t>
         </is>
       </c>
     </row>
@@ -2144,14 +2701,20 @@
           <t>Nam</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2001</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -2186,7 +2749,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/10/2025 13:34:18</t>
+          <t>20/10/2025 15:19:58</t>
         </is>
       </c>
     </row>
@@ -2221,14 +2784,20 @@
           <t>Khác</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2001</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -2267,7 +2836,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>15/10/2025 13:34:39</t>
+          <t>20/10/2025 15:20:19</t>
         </is>
       </c>
     </row>
@@ -2302,14 +2871,20 @@
           <t>Nam</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2002</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -2348,7 +2923,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>15/10/2025 13:35:00</t>
+          <t>20/10/2025 15:20:39</t>
         </is>
       </c>
     </row>
@@ -2383,14 +2958,20 @@
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2003</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -2429,7 +3010,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>15/10/2025 13:35:22</t>
+          <t>20/10/2025 15:21:00</t>
         </is>
       </c>
     </row>
@@ -2457,17 +3038,23 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2004</v>
+          <t>Khác</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -2506,7 +3093,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>15/10/2025 13:35:43</t>
+          <t>20/10/2025 15:21:20</t>
         </is>
       </c>
     </row>
@@ -2541,14 +3128,20 @@
           <t>Nam</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2005</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -2587,7 +3180,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>15/10/2025 13:35:56</t>
+          <t>20/10/2025 15:21:32</t>
         </is>
       </c>
     </row>
@@ -2622,14 +3215,20 @@
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2006</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -2668,7 +3267,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>15/10/2025 13:36:12</t>
+          <t>20/10/2025 15:21:44</t>
         </is>
       </c>
     </row>
@@ -2700,17 +3299,23 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2007</v>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -2749,518 +3354,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>15/10/2025 13:36:25</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Testcase</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Keyword</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>FullName</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Province</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>District</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Ward</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DH1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Giày Cao Gót MWC 4444</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bạc</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Phạm Ánh Dương</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0905123456</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>123 Lý Thường Kiệt</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>TP Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Quận 1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Phường Bến Nghé</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Đặt hàng thành công!</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>16/10/2025 00:10:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DH2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Giày Cao Gót MWC 4444</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>đen</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0905123456</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>123 ABC</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TP Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Quận 1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Phường Bến Nghé</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>16/10/2025 00:10:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DH3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Giày Cao Gót MWC 4444</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>bạc</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Phạm Ánh Dương</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>123 ABC</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>TP Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Quận 1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Phường Bến Nghé</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>16/10/2025 00:10:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DH4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Giày Cao Gót MWC 4444</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>bạc</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Phạm Ánh Dương</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0905123456</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>TP Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Quận 2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Phường An Khánh</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>16/10/2025 00:10:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DH5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Giày Cao Gót MWC 4444</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>bạc</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Phạm Ánh Dương</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0905123456</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>123 ABC</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Chọn Tỉnh/Thành</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Chọn Quận/huyện</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Chọn Xã/Phường</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>16/10/2025 00:10:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DH6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Giày Cao Gót MWC 4444</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>bạc</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Nguyễn A</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3321156</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>456 DEF</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>TP Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Quận 10</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Phường 15</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>SĐT không đúng định dạng</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>'MWCOrderPage' object has no attribute 'verify_product_page'</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>16/10/2025 00:10:42</t>
+          <t>20/10/2025 15:21:56</t>
         </is>
       </c>
     </row>

--- a/Framework_MWC_Testing/reports/results/ResultsData.xlsx
+++ b/Framework_MWC_Testing/reports/results/ResultsData.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Search" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Register" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Profile" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Search" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Profile" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Login" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -918,313 +918,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Testcase</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DN1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>anhduong@123</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>20/10/2025 14:38:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DN2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ÁNH DƯƠNG PHẠM</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>anhduong@123</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20/10/2025 14:38:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DN3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>anhduongpham</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>anhduong123</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>anhduongpham</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>anhduongpham</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>20/10/2025 14:38:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DN4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>anhduong@124</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>20/10/2025 14:38:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DN5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>anhduongpham</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tên người dùng khác mong đợi: </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>20/10/2025 14:39:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DN6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>anh</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>anhduong@125</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>20/10/2025 14:39:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DN7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>anhduong</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>20/10/2025 14:39:19</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1532,7 +1225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2146,7 +1839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2278,20 +1971,14 @@
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2000</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -2365,20 +2052,14 @@
           <t>Nam</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -2448,20 +2129,14 @@
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2001</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -2531,20 +2206,14 @@
           <t>Khác</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2001</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -2618,20 +2287,14 @@
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2001</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -2701,20 +2364,14 @@
           <t>Nam</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2001</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -2784,20 +2441,14 @@
           <t>Khác</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2001</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -2871,20 +2522,14 @@
           <t>Nam</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2002</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -2958,20 +2603,14 @@
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2003</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -3041,20 +2680,14 @@
           <t>Khác</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2004</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -3128,20 +2761,14 @@
           <t>Nam</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2005</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -3215,20 +2842,14 @@
           <t>Nữ</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2006</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -3302,20 +2923,14 @@
           <t>Nam</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2007</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -3355,6 +2970,313 @@
       <c r="Q14" t="inlineStr">
         <is>
           <t>20/10/2025 15:21:56</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Testcase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DN1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>anhduong@123</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21/10/2025 15:33:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DN2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ÁNH DƯƠNG PHẠM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>anhduong@123</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>21/10/2025 15:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DN3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>anhduongpham</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>anhduong123</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>anhduongpham</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>anhduongpham</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>21/10/2025 15:34:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DN4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>anhduong@124</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>21/10/2025 15:34:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DN5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>anhduongpham</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tên người dùng khác mong đợi: </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>21/10/2025 15:34:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DN6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>anh</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>anhduong@125</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>21/10/2025 15:34:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DN7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ánh Duơng Phạm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>anhduong</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>21/10/2025 15:34:42</t>
         </is>
       </c>
     </row>

--- a/Framework_MWC_Testing/reports/results/ResultsData.xlsx
+++ b/Framework_MWC_Testing/reports/results/ResultsData.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Order" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Search" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Register" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Profile" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Login" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Profile" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Login" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Register" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1231,620 +1231,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Testcase</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PasswordConfirm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DK1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MaiQuynhAnh12</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0359694533</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MaiQuynhAnh12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>tài khoản đã tồn tại trong hệ thống</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:09:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DK2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>user_demo_2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:09:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DK3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0912345678</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:09:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DK4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>user_demo_3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0912345678</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Không có thông báo hiển thị.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:09:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DK5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>user_demo_4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0912345678</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Không có thông báo hiển thị.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:09:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DK6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>user_demo_5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>091</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:09:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DK7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>user_demo_6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:09:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DK8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>user_demo_7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>03!</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:09:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>DK9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>user_demo_8</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>03 45216789</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Abcde12345</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:09:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DK10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>user_demo_9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0912345678</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:09:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DK11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>user_demo_10</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0912345679</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>mật khẩu không giống nhau</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>mật khẩu không giống nhau</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:10:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DK12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>035214679</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>tài khoản đã tồn tại trong hệ thống</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>tài khoản đã tồn tại trong hệ thống</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:10:06</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2978,7 +2364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3062,7 +2448,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/10/2025 15:33:27</t>
+          <t>21/10/2025 17:32:22</t>
         </is>
       </c>
     </row>
@@ -3099,7 +2485,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/10/2025 15:33:47</t>
+          <t>21/10/2025 17:32:51</t>
         </is>
       </c>
     </row>
@@ -3136,7 +2522,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/10/2025 15:34:06</t>
+          <t>21/10/2025 17:33:13</t>
         </is>
       </c>
     </row>
@@ -3169,7 +2555,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/10/2025 15:34:12</t>
+          <t>21/10/2025 17:33:19</t>
         </is>
       </c>
     </row>
@@ -3202,7 +2588,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/10/2025 15:34:30</t>
+          <t>21/10/2025 17:33:38</t>
         </is>
       </c>
     </row>
@@ -3239,7 +2625,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/10/2025 15:34:36</t>
+          <t>21/10/2025 17:33:44</t>
         </is>
       </c>
     </row>
@@ -3251,7 +2637,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ánh Duơng Phạm</t>
+          <t>Ánh Dương Phạm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3276,7 +2662,488 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/10/2025 15:34:42</t>
+          <t>21/10/2025 17:33:50</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Testcase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PasswordConfirm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>user_demo_2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>21/10/2025 17:35:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DK3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>21/10/2025 17:35:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DK6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>user_demo_5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>21/10/2025 17:35:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DK7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>user_demo_6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>21/10/2025 17:36:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DK8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>user_demo_7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>03!</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>21/10/2025 17:36:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DK9</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>user_demo_8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>03 45216789</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>21/10/2025 17:36:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DK10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>user_demo_9</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>21/10/2025 17:36:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DK11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>user_demo_10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0912345679</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>mật khẩu không giống nhau</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>mật khẩu không giống nhau</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>21/10/2025 17:36:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DK12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>035214679</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>tài khoản đã tồn tại trong hệ thống</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>tài khoản đã tồn tại trong hệ thống</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>21/10/2025 17:36:33</t>
         </is>
       </c>
     </row>

--- a/Framework_MWC_Testing/reports/results/ResultsData.xlsx
+++ b/Framework_MWC_Testing/reports/results/ResultsData.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Search" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Profile" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Login" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Register" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Profile" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Register" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Search" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -918,319 +918,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Testcase</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Keyword</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TK1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.
-195.000 đ</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:06:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TK2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>E196</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.
-195.000 đ</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:06:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TK3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Giày</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Giày</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Giày Cao Gót MWC G231 - Dép Sục Cao Gót Nữ 4cm, Mũi Nhọn Đính Hoa Trà Kim Loại Qúy Phái, Sang Chảnh Kiểu Pháp.
-215.000 đ</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:06:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TK4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GIÀY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Giày</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Giày Cao Gót MWC G231 - Dép Sục Cao Gót Nữ 4cm, Mũi Nhọn Đính Hoa Trà Kim Loại Qúy Phái, Sang Chảnh Kiểu Pháp.
-215.000 đ</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:06:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TK5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Giay the thao nam</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Giày thể thao nam</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Giày Thể Thao Nam MWC 5827 - Giày Thể Thao Sneaker Nam Cổ Thấp Đi Phượt, Leo Núi, Chạy Bộ Siêu Bền Đẹp, Đa Phong Cách.
-380.000 đ</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:06:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TK6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Giay th</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Không tìm thấy sản phẩm</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Không tìm thấy sản phẩm</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:06:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TK7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Giay!#$%</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Không tìm thấy sản phẩm</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Không tìm thấy sản phẩm</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:06:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TK8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Màu đen</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Màu đen</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Dép Nam MWC 9200 - Dép Nam Da Vân Hai Quai Chéo Hình Chữ X Màu Đen Tuyền Huyền Bí, Lịch Lãm, Sang Trọng.
-225.000 đ</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:07:05</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2364,7 +2051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2448,7 +2135,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/10/2025 17:32:22</t>
+          <t>22/10/2025 13:43:56</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2172,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/10/2025 17:32:51</t>
+          <t>22/10/2025 13:44:15</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2209,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/10/2025 17:33:13</t>
+          <t>22/10/2025 13:44:36</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2242,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/10/2025 17:33:19</t>
+          <t>22/10/2025 13:44:41</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2275,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/10/2025 17:33:38</t>
+          <t>22/10/2025 13:44:59</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2312,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/10/2025 17:33:44</t>
+          <t>22/10/2025 13:45:05</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2349,621 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/10/2025 17:33:50</t>
+          <t>22/10/2025 13:45:11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Testcase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PasswordConfirm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DK1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MaiQuynhAnh12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0359694533</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MaiQuynhAnh12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tên người dùng khác mong đợi: </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DK2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>user_demo_2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:49:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DK3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:49:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DK4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>user_demo_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tên người dùng khác mong đợi: </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:50:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DK5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>user_demo_4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tên người dùng khác mong đợi: </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:50:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DK6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>user_demo_5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:50:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DK7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>user_demo_6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:50:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DK8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>user_demo_7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>03!</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:50:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DK9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>user_demo_8</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>03 45216789</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Abcde12345</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>số điện thoại không đúng định dạng!</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:50:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DK10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>user_demo_9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:50:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DK11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>user_demo_10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0912345679</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>mật khẩu không giống nhau</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>mật khẩu không giống nhau</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:50:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DK12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>035214679</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>tài khoản đã tồn tại trong hệ thống</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>tài khoản đã tồn tại trong hệ thống</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>22/10/2025 13:50:50</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2693,40 +2994,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Username</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PasswordConfirm</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
@@ -2735,415 +3021,260 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DK2</t>
+          <t>TK1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>user_demo_2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.
+195.000 đ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>21/10/2025 17:35:32</t>
+          <t>22/10/2025 13:53:11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DK3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>TK2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>E196</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0912345678</t>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.
+195.000 đ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>21/10/2025 17:35:38</t>
+          <t>22/10/2025 13:53:17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DK6</t>
+          <t>TK3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>user_demo_5</t>
+          <t>Giày</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>091</t>
+          <t>Giày</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>Giày Cao Gót MWC G231 - Dép Sục Cao Gót Nữ 4cm, Mũi Nhọn Đính Hoa Trà Kim Loại Qúy Phái, Sang Chảnh Kiểu Pháp.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>21/10/2025 17:35:56</t>
+          <t>22/10/2025 13:53:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DK7</t>
+          <t>TK4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>user_demo_6</t>
+          <t>GIÀY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>Giày</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>Giày Cao Gót MWC G231 - Dép Sục Cao Gót Nữ 4cm, Mũi Nhọn Đính Hoa Trà Kim Loại Qúy Phái, Sang Chảnh Kiểu Pháp.
+215.000 đ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>21/10/2025 17:36:02</t>
+          <t>22/10/2025 13:53:29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DK8</t>
+          <t>TK5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>user_demo_7</t>
+          <t>Giay the thao nam</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>03!</t>
+          <t>Giày thể thao nam</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>Không tìm thấy sản phẩm</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>21/10/2025 17:36:09</t>
+          <t>22/10/2025 13:53:59</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DK9</t>
+          <t>TK6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>user_demo_8</t>
+          <t>Giay th</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>03 45216789</t>
+          <t>Không tìm thấy sản phẩm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>Không tìm thấy sản phẩm</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Abcde12345</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>số điện thoại không đúng định dạng!</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>21/10/2025 17:36:15</t>
+          <t>22/10/2025 13:54:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DK10</t>
+          <t>TK7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>user_demo_9</t>
+          <t>Giay!#$%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0912345678</t>
+          <t>Không tìm thấy sản phẩm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>Không tìm thấy sản phẩm</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>21/10/2025 17:36:20</t>
+          <t>22/10/2025 13:54:23</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DK11</t>
+          <t>TK8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>user_demo_10</t>
+          <t>Màu đen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0912345679</t>
+          <t>Màu đen</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>Dép Nam MWC 9200 - Dép Nam Da Vân Hai Quai Chéo Hình Chữ X Màu Đen Tuyền Huyền Bí, Lịch Lãm, Sang Trọng.
+225.000 đ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>mật khẩu không giống nhau</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>mật khẩu không giống nhau</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>21/10/2025 17:36:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>DK12</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>035214679</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>tài khoản đã tồn tại trong hệ thống</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>tài khoản đã tồn tại trong hệ thống</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>21/10/2025 17:36:33</t>
+          <t>22/10/2025 13:54:29</t>
         </is>
       </c>
     </row>

--- a/Framework_MWC_Testing/reports/results/ResultsData.xlsx
+++ b/Framework_MWC_Testing/reports/results/ResultsData.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Profile" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Login" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Register" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Search" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Search" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Profile" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -918,1145 +918,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Testcase</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FullName</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Month</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Province</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>District</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Ward</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TT1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>anh1@gmail.com</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>03321156789</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Hậu Giang</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Huyện Châu Thành</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Xã Đông Phước A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:18:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TT2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>anh1@gmail.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>03321156789</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TP. Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Quận 1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Phường Bến Nghé</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:19:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TT3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>anh1@gmail.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>03321156790</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>11</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2001</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TP. Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Quận 2</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Phường Bến Nghé</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:19:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TT4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>03321156789</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Khác</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2001</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Hậu Giang</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Huyện Châu Thành</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Xã Đông Phước A</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:19:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TT5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>anh1@gmail.com</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>03321156789</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2001</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Hậu Giang</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Huyện Châu Thành</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Xã Đông Phước A</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:19:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TT6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>anh1@gmail.com</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>03321156789</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Chọn Tỉnh/Thành</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Chọn Quận/huyện</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Chọn Xã/Phường</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:19:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TT7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>anh1@</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>03321156789</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Khác</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2001</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Hậu Giang</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Huyện Châu Thành</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Xã Đông Phước A</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Vui lòng nhập phần đứng sau '@'. 'anh1@' không hoàn chỉnh.</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>vui lòng nhập phần đứng sau '@'. 'anh1@' không hoàn chỉnh.</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:20:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TT8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>anh1@@</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>03321156790</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2002</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Hậu Giang</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Huyện Châu Thành</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Xã Đông Phước A</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Phần đứng sau '@' không được chứa biểu tượng '@'.</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>phần đứng sau '@' không được chứa biểu tượng '@'.</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:20:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TT9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>anh1@gmail.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>03321156789</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2003</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Hậu Giang</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Huyện Châu Thành</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Xã Đông Phước A</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>.' bị sử dụng sai vị trí trong 'gmail.'.</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>'.' bị sử dụng sai vị trí trong 'gmail.'.</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:21:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TT10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>anh1@gmail.com</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Khác</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2004</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Hậu Giang</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Huyện Châu Thành</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Xã Đông Phước A</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:21:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>TT11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>anh1@gmail.com</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>abcd</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2005</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Hậu Giang</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Huyện Châu Thành</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Xã Đông Phước A</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Số điện thoại không hợp lệ.</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:21:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>TT12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>anh1@gmail.com</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>345</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2006</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Hậu Giang</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Huyện Châu Thành</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Xã Đông Phước A</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Số điện thoại không hợp lệ.</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:21:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>TT13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Phạm Thị Ánh Dương</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>anh1@gmail.com</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0332115678987</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2007</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Hậu Giang</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Huyện Châu Thành</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Xã Đông Phước A</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Số điện thoại không hợp lệ.</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Cập nhập tài khoản thành công!</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>20/10/2025 15:21:56</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2135,7 +996,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/10/2025 13:43:56</t>
+          <t>22/10/2025 16:23:10</t>
         </is>
       </c>
     </row>
@@ -2172,7 +1033,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/10/2025 13:44:15</t>
+          <t>22/10/2025 16:23:30</t>
         </is>
       </c>
     </row>
@@ -2209,7 +1070,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/10/2025 13:44:36</t>
+          <t>22/10/2025 16:23:50</t>
         </is>
       </c>
     </row>
@@ -2242,7 +1103,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/10/2025 13:44:41</t>
+          <t>22/10/2025 16:23:56</t>
         </is>
       </c>
     </row>
@@ -2275,7 +1136,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/10/2025 13:44:59</t>
+          <t>22/10/2025 16:24:15</t>
         </is>
       </c>
     </row>
@@ -2312,7 +1173,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/10/2025 13:45:05</t>
+          <t>22/10/2025 16:24:21</t>
         </is>
       </c>
     </row>
@@ -2324,7 +1185,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ánh Dương Phạm</t>
+          <t>Ánh Duơng Phạm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2349,7 +1210,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/10/2025 13:45:11</t>
+          <t>22/10/2025 16:24:26</t>
         </is>
       </c>
     </row>
@@ -2358,7 +1219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2427,7 +1288,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MaiQuynhAnh12</t>
+          <t>LuongCaoKyDuyen1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2447,7 +1308,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MaiQuynhAnh12</t>
+          <t>LuongCaoKyDuyen1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2462,7 +1323,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22/10/2025 13:49:19</t>
+          <t>22/10/2025 16:41:38</t>
         </is>
       </c>
     </row>
@@ -2505,7 +1366,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>22/10/2025 13:49:25</t>
+          <t>22/10/2025 16:41:44</t>
         </is>
       </c>
     </row>
@@ -2548,7 +1409,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>22/10/2025 13:49:29</t>
+          <t>22/10/2025 16:41:49</t>
         </is>
       </c>
     </row>
@@ -2591,7 +1452,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>22/10/2025 13:50:02</t>
+          <t>22/10/2025 16:41:55</t>
         </is>
       </c>
     </row>
@@ -2634,7 +1495,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>22/10/2025 13:50:09</t>
+          <t>22/10/2025 16:42:02</t>
         </is>
       </c>
     </row>
@@ -2681,7 +1542,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>22/10/2025 13:50:15</t>
+          <t>22/10/2025 16:42:09</t>
         </is>
       </c>
     </row>
@@ -2728,7 +1589,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>22/10/2025 13:50:20</t>
+          <t>22/10/2025 16:42:15</t>
         </is>
       </c>
     </row>
@@ -2775,7 +1636,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>22/10/2025 13:50:26</t>
+          <t>22/10/2025 16:42:21</t>
         </is>
       </c>
     </row>
@@ -2822,7 +1683,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>22/10/2025 13:50:32</t>
+          <t>22/10/2025 16:42:27</t>
         </is>
       </c>
     </row>
@@ -2869,7 +1730,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>22/10/2025 13:50:38</t>
+          <t>22/10/2025 16:42:33</t>
         </is>
       </c>
     </row>
@@ -2916,7 +1777,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>22/10/2025 13:50:44</t>
+          <t>22/10/2025 16:42:40</t>
         </is>
       </c>
     </row>
@@ -2963,7 +1824,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>22/10/2025 13:50:50</t>
+          <t>22/10/2025 16:42:46</t>
         </is>
       </c>
     </row>
@@ -2972,7 +1833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3047,7 +1908,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>22/10/2025 13:53:11</t>
+          <t>22/10/2025 17:01:25</t>
         </is>
       </c>
     </row>
@@ -3080,7 +1941,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>22/10/2025 13:53:17</t>
+          <t>22/10/2025 17:01:31</t>
         </is>
       </c>
     </row>
@@ -3102,7 +1963,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Giày Cao Gót MWC G231 - Dép Sục Cao Gót Nữ 4cm, Mũi Nhọn Đính Hoa Trà Kim Loại Qúy Phái, Sang Chảnh Kiểu Pháp.</t>
+          <t>Giày Cao Gót MWC G231 - Dép Sục Cao Gót Nữ 4cm, Mũi Nhọn Đính Hoa Trà Kim Loại Qúy Phái, Sang Chảnh Kiểu Pháp.
+215.000 đ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3112,7 +1974,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22/10/2025 13:53:23</t>
+          <t>22/10/2025 17:01:37</t>
         </is>
       </c>
     </row>
@@ -3145,7 +2007,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22/10/2025 13:53:29</t>
+          <t>22/10/2025 17:01:44</t>
         </is>
       </c>
     </row>
@@ -3167,17 +2029,18 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Không tìm thấy sản phẩm</t>
+          <t>Giày Thể Thao Nam MWC 5827 - Giày Thể Thao Sneaker Nam Cổ Thấp Đi Phượt, Leo Núi, Chạy Bộ Siêu Bền Đẹp, Đa Phong Cách.
+380.000 đ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>22/10/2025 13:53:59</t>
+          <t>22/10/2025 17:01:51</t>
         </is>
       </c>
     </row>
@@ -3209,7 +2072,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>22/10/2025 13:54:17</t>
+          <t>22/10/2025 17:01:58</t>
         </is>
       </c>
     </row>
@@ -3241,7 +2104,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>22/10/2025 13:54:23</t>
+          <t>22/10/2025 17:02:04</t>
         </is>
       </c>
     </row>
@@ -3274,7 +2137,1224 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>22/10/2025 13:54:29</t>
+          <t>22/10/2025 17:02:11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Testcase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FullName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>District</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Ward</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TT1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:42:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TT2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>TP. Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Quận 1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:42:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TT3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>03321156790</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>TP. Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Quận 2</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:42:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TT4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Khác</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Không thấy thông báo sau khi lưu.</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:43:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TT5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Không thấy thông báo sau khi lưu.</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:43:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TT6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Chọn Tỉnh/Thành</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Chọn Quận/huyện</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Chọn Xã/Phường</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:44:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TT7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>anh1@</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Khác</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập phần đứng sau '@'. 'anh1@' không hoàn chỉnh.</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>vui lòng nhập phần đứng sau '@'. 'anh1@' không hoàn chỉnh.</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:44:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TT8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>anh1@@</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>03321156790</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Phần đứng sau '@' không được chứa biểu tượng '@'.</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>phần đứng sau '@' không được chứa biểu tượng '@'.</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:44:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TT9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>anh1@gmail.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>03321156789</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>.' bị sử dụng sai vị trí trong 'gmail.'.</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>'.' bị sử dụng sai vị trí trong 'gmail.'.</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:45:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TT10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Khác</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:45:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TT11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>abcd</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Số điện thoại không hợp lệ.</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:46:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TT12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Số điện thoại không hợp lệ.</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Không thấy thông báo sau khi lưu.</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:46:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TT13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0332115678987</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Hậu Giang</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Huyện Châu Thành</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Xã Đông Phước A</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Số điện thoại không hợp lệ.</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Không thấy thông báo sau khi lưu.</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>22/10/2025 17:47:28</t>
         </is>
       </c>
     </row>

--- a/Framework_MWC_Testing/reports/results/ResultsData.xlsx
+++ b/Framework_MWC_Testing/reports/results/ResultsData.xlsx
@@ -2330,7 +2330,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>22/10/2025 17:42:05</t>
+          <t>22/10/2025 22:09:00</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>22/10/2025 17:42:16</t>
+          <t>22/10/2025 22:09:21</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>22/10/2025 17:42:29</t>
+          <t>22/10/2025 22:09:31</t>
         </is>
       </c>
     </row>
@@ -2573,17 +2573,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Không thấy thông báo sau khi lưu.</t>
+          <t>Cập nhập tài khoản thành công!</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>22/10/2025 17:43:07</t>
+          <t>22/10/2025 22:09:43</t>
         </is>
       </c>
     </row>
@@ -2656,17 +2656,17 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Không thấy thông báo sau khi lưu.</t>
+          <t>Cập nhập tài khoản thành công!</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>22/10/2025 17:43:46</t>
+          <t>22/10/2025 22:09:58</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>22/10/2025 17:44:11</t>
+          <t>22/10/2025 22:10:25</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>22/10/2025 17:44:33</t>
+          <t>22/10/2025 22:10:50</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>22/10/2025 17:44:55</t>
+          <t>22/10/2025 22:11:15</t>
         </is>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>22/10/2025 17:45:20</t>
+          <t>22/10/2025 22:11:40</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>22/10/2025 17:45:55</t>
+          <t>22/10/2025 22:12:12</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>22/10/2025 17:46:10</t>
+          <t>22/10/2025 22:12:25</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Không thấy thông báo sau khi lưu.</t>
+          <t>Cập nhập tài khoản thành công!</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/10/2025 17:46:49</t>
+          <t>22/10/2025 22:12:37</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Không thấy thông báo sau khi lưu.</t>
+          <t>Cập nhập tài khoản thành công!</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/10/2025 17:47:28</t>
+          <t>22/10/2025 22:12:49</t>
         </is>
       </c>
     </row>

--- a/Framework_MWC_Testing/reports/results/ResultsData.xlsx
+++ b/Framework_MWC_Testing/reports/results/ResultsData.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Order" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Order" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Register" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Search" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Profile" sheetId="5" state="visible" r:id="rId5"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,65 +445,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Username</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Color</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FullName</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Province</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>District</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Ward</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
@@ -512,398 +477,280 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DH1</t>
+          <t>DN1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giày Cao Gót MWC 4444</t>
+          <t>Ánh Dương Phạm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bạc</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>37</v>
+          <t>anhduong@123</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Phạm Ánh Dương</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>905123456</v>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>123 Lý Thường Kiệt</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>TP Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Quận 1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Phường Bến Nghé</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Đặt hàng thành công!</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>19/10/2025 11:11:49</t>
+          <t>25/10/2025 13:11:57</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DH2</t>
+          <t>DN2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Giày Cao Gót MWC 4444</t>
+          <t>ÁNH DƯƠNG PHẠM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>đen</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>38</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>905123456</v>
+          <t>anhduong@123</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>123 ABC</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TP Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Quận 1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Phường Bến Nghé</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>19/10/2025 11:12:43</t>
+          <t>25/10/2025 13:12:16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DH3</t>
+          <t>DN3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Giày Cao Gót MWC 4444</t>
+          <t>anhduongpham</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bạc</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>36</v>
+          <t>anhduong123</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>anhduongpham</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phạm Ánh Dương</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>anhduongpham</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>123 ABC</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>TP Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Quận 1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Phường Bến Nghé</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>19/10/2025 11:13:39</t>
+          <t>25/10/2025 13:12:36</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DH4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Giày Cao Gót MWC 4444</t>
-        </is>
-      </c>
+          <t>DN4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>bạc</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>36</v>
+          <t>anhduong@124</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Phạm Ánh Dương</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>905123456</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>TP Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Quận 2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Phường An Khánh</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>19/10/2025 11:14:34</t>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>25/10/2025 13:12:42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DH5</t>
+          <t>DN5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Giày Cao Gót MWC 4444</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>bạc</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>36</v>
+          <t>anhduongpham</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Phạm Ánh Dương</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>905123456</v>
+          <t xml:space="preserve">Tên người dùng khác mong đợi: </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>123 ABC</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Chọn Tỉnh/Thành</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Chọn Quận/huyện</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Chọn Xã/Phường</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>19/10/2025 11:15:28</t>
+          <t>25/10/2025 13:13:04</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DH6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Giày Cao Gót MWC 4444</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>bạc</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>35</v>
+          <t>DN6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nguyễn A</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3321156</v>
+          <t>Vui lòng điền vào trường này.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>456 DEF</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>TP Hồ Chí Minh</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Quận 10</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Phường 15</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>SĐT không đúng định dạng</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Bạn chưa nhập thông tin nhận hàng!</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>19/10/2025 11:16:23</t>
+          <t>25/10/2025 13:13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DN7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>anh</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>anhduong@125</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>25/10/2025 13:13:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DN8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>anhduong</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>25/10/2025 13:13:24</t>
         </is>
       </c>
     </row>
@@ -918,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,30 +781,65 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Username</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FullName</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>District</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ward</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
@@ -966,251 +848,398 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DN1</t>
+          <t>DH1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ánh Dương Phạm</t>
+          <t>Giày Cao Gót MWC 4444</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>anhduong@123</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>37</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>905123456</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/10/2025 16:23:10</t>
+          <t>123 Lý Thường Kiệt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Quận 1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Đặt hàng thành công!</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:11:49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DN2</t>
+          <t>DH2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ÁNH DƯƠNG PHẠM</t>
+          <t>Giày Cao Gót MWC 4444</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>anhduong@123</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ánh Dương Phạm</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
+          <t>đen</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>905123456</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/10/2025 16:23:30</t>
+          <t>123 ABC</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Quận 1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:12:43</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DN3</t>
+          <t>DH3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>anhduongpham</t>
+          <t>Giày Cao Gót MWC 4444</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>anhduong123</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>anhduongpham</t>
-        </is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>anhduongpham</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/10/2025 16:23:50</t>
+          <t>123 ABC</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Quận 1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:13:39</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DN4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>DH4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>anhduong@124</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>36</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>22/10/2025 16:23:56</t>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>905123456</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Quận 2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Phường An Khánh</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:14:34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DN5</t>
+          <t>DH5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>anhduongpham</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Vui lòng điền vào trường này.</t>
-        </is>
+          <t>Giày Cao Gót MWC 4444</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>36</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tên người dùng khác mong đợi: </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
+          <t>Phạm Ánh Dương</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>905123456</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/10/2025 16:24:15</t>
+          <t>123 ABC</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chọn Tỉnh/Thành</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Chọn Quận/huyện</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Chọn Xã/Phường</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:15:28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DN6</t>
+          <t>DH6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>anh</t>
+          <t>Giày Cao Gót MWC 4444</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>anhduong@125</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
-        </is>
+          <t>bạc</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>35</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
+          <t>Nguyễn A</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3321156</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/10/2025 16:24:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DN7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ánh Duơng Phạm</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>anhduong</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Tên đăng nhập hoặc mật khẩu không đúng!</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>22/10/2025 16:24:26</t>
+          <t>456 DEF</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Quận 10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Phường 15</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SĐT không đúng định dạng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Bạn chưa nhập thông tin nhận hàng!</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>19/10/2025 11:16:23</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,12 +1317,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LuongCaoKyDuyen1</t>
+          <t>Nguyen_Pham_Nhat_Anh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0359694533</t>
+          <t>0359694333</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1308,22 +1337,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LuongCaoKyDuyen1</t>
+          <t>Nguyen_Pham_Nhat_Anh</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tên người dùng khác mong đợi: </t>
+          <t>Nguyen_Pham_Nhat_Anh</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22/10/2025 16:41:38</t>
+          <t>25/10/2025 19:15:24</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1395,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>22/10/2025 16:41:44</t>
+          <t>25/10/2025 19:15:30</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1438,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>22/10/2025 16:41:49</t>
+          <t>25/10/2025 19:15:36</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1481,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>22/10/2025 16:41:55</t>
+          <t>25/10/2025 19:15:44</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1524,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>22/10/2025 16:42:02</t>
+          <t>25/10/2025 19:15:52</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1571,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>22/10/2025 16:42:09</t>
+          <t>25/10/2025 19:16:03</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1618,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>22/10/2025 16:42:15</t>
+          <t>25/10/2025 19:16:11</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1665,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>22/10/2025 16:42:21</t>
+          <t>25/10/2025 19:16:18</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1712,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>22/10/2025 16:42:27</t>
+          <t>25/10/2025 19:16:24</t>
         </is>
       </c>
     </row>
@@ -1700,27 +1729,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0912345678</t>
+          <t>03452167891</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>Abcde12345</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>Abcde12345</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
+          <t>Số điện thoại không đúng định dạng!</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
+          <t>số điện thoại không đúng định dạng!</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1730,7 +1759,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>22/10/2025 16:42:33</t>
+          <t>25/10/2025 19:16:32</t>
         </is>
       </c>
     </row>
@@ -1747,12 +1776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0912345679</t>
+          <t>0912345678</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1762,12 +1791,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>mật khẩu không giống nhau</t>
+          <t>Mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>mật khẩu không giống nhau</t>
+          <t>mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1777,7 +1806,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>22/10/2025 16:42:40</t>
+          <t>25/10/2025 19:16:39</t>
         </is>
       </c>
     </row>
@@ -1789,42 +1818,136 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>user_demo_11</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1234567890abcdefghiklmno</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1234567890abcdefghiklmno</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>mật khẩu phải lớn hơn 8 ký tự và nhỏ hơn 20 ký tự!</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>25/10/2025 19:16:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DK13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>user_demo_12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0912345679</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>mật khẩu không giống nhau</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>mật khẩu không giống nhau</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>25/10/2025 19:16:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DK14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Ánh Dương Phạm</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>035214679</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0352146789</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>123456789</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>123456789</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>tài khoản đã tồn tại trong hệ thống</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>tài khoản đã tồn tại trong hệ thống</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>22/10/2025 16:42:46</t>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>25/10/2025 19:17:01</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1908,7 +2031,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>22/10/2025 17:01:25</t>
+          <t>27/10/2025 07:40:10</t>
         </is>
       </c>
     </row>
@@ -1941,7 +2064,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>22/10/2025 17:01:31</t>
+          <t>27/10/2025 07:40:19</t>
         </is>
       </c>
     </row>
@@ -1963,8 +2086,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Giày Cao Gót MWC G231 - Dép Sục Cao Gót Nữ 4cm, Mũi Nhọn Đính Hoa Trà Kim Loại Qúy Phái, Sang Chảnh Kiểu Pháp.
-215.000 đ</t>
+          <t>Giày Cao Gót MWC G295 - Sandal Gót Trụ Tròn 5cm, Quai Mảnh Phối Nơ Nhỏ Xinh Thanh Lịch, Nữ Tính, Thời Trang.
+195.000 đ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1974,7 +2097,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22/10/2025 17:01:37</t>
+          <t>27/10/2025 07:40:32</t>
         </is>
       </c>
     </row>
@@ -1996,8 +2119,8 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Giày Cao Gót MWC G231 - Dép Sục Cao Gót Nữ 4cm, Mũi Nhọn Đính Hoa Trà Kim Loại Qúy Phái, Sang Chảnh Kiểu Pháp.
-215.000 đ</t>
+          <t>Giày Cao Gót MWC G295 - Sandal Gót Trụ Tròn 5cm, Quai Mảnh Phối Nơ Nhỏ Xinh Thanh Lịch, Nữ Tính, Thời Trang.
+195.000 đ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2007,7 +2130,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22/10/2025 17:01:44</t>
+          <t>27/10/2025 07:40:47</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2163,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>22/10/2025 17:01:51</t>
+          <t>27/10/2025 07:40:57</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2195,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>22/10/2025 17:01:58</t>
+          <t>27/10/2025 07:41:14</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2207,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Giay!#$%</t>
+          <t>Bánh bao</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2104,7 +2227,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>22/10/2025 17:02:04</t>
+          <t>27/10/2025 07:41:31</t>
         </is>
       </c>
     </row>
@@ -2114,30 +2237,123 @@
           <t>TK8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Không tìm thấy sản phẩm</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Giày Cao Gót MWC G295 - Sandal Gót Trụ Tròn 5cm, Quai Mảnh Phối Nơ Nhỏ Xinh Thanh Lịch, Nữ Tính, Thời Trang.
+195.000 đ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27/10/2025 07:41:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TK9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Giay!#$%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Không tìm thấy sản phẩm</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Không tìm thấy sản phẩm</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27/10/2025 07:42:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TK10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Giày Sandal Nữ MWC E196 - Sandal Đế Đúc Nguyên Khối, Quai Ngang To Bản Kết Hợp Quai Dán Tiện Lợi, Cá Tính, Thoải Mái.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Không tìm thấy sản phẩm</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27/10/2025 07:42:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TK11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Màu đen</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Màu đen</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Dép Nam MWC 9200 - Dép Nam Da Vân Hai Quai Chéo Hình Chữ X Màu Đen Tuyền Huyền Bí, Lịch Lãm, Sang Trọng.
 225.000 đ</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>22/10/2025 17:02:11</t>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>27/10/2025 07:42:42</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2330,7 +2546,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>22/10/2025 22:09:00</t>
+          <t>27/10/2025 07:56:48</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2633,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>22/10/2025 22:09:21</t>
+          <t>27/10/2025 07:57:08</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2716,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>22/10/2025 22:09:31</t>
+          <t>27/10/2025 07:57:25</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2799,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>22/10/2025 22:09:43</t>
+          <t>27/10/2025 07:57:55</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2882,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>22/10/2025 22:09:58</t>
+          <t>27/10/2025 07:58:18</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2965,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>22/10/2025 22:10:25</t>
+          <t>27/10/2025 07:58:47</t>
         </is>
       </c>
     </row>
@@ -2836,7 +3052,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>22/10/2025 22:10:50</t>
+          <t>27/10/2025 07:59:15</t>
         </is>
       </c>
     </row>
@@ -2923,7 +3139,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>22/10/2025 22:11:15</t>
+          <t>27/10/2025 07:59:48</t>
         </is>
       </c>
     </row>
@@ -3010,7 +3226,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>22/10/2025 22:11:40</t>
+          <t>27/10/2025 08:00:34</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3309,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>22/10/2025 22:12:12</t>
+          <t>27/10/2025 08:01:13</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3396,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>22/10/2025 22:12:25</t>
+          <t>27/10/2025 08:01:42</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3473,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Cập nhập tài khoản thành công!</t>
+          <t>Vui lòng điền vào trường này.</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3267,7 +3483,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/10/2025 22:12:37</t>
+          <t>27/10/2025 08:02:20</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3570,94 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/10/2025 22:12:49</t>
+          <t>27/10/2025 08:02:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TT14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ánh Dương Phạm</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Phạm Thị Ánh Dương</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>anh1@gmail.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>!#$%^&amp;*()</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>TP. Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Quận 2</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Phường Bến Nghé</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Số điện thoại không hợp lệ.</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Cập nhập tài khoản thành công!</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>27/10/2025 08:03:19</t>
         </is>
       </c>
     </row>
